--- a/metricas_LSTM.xlsx
+++ b/metricas_LSTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e65dacde5e48ce8/Documentos/Maestria Explotacion de Datos/Maestria/Taller de Tesis 1/2025/4ta Entrega (Final)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{798A0348-5905-4E71-B47F-4DBA8C33C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{798A0348-5905-4E71-B47F-4DBA8C33C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08B23B8-004A-4658-BC88-084D2E087132}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F3031D3-021F-4C03-8CD6-ED03958470B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>ALUA</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>YPFD</t>
+  </si>
+  <si>
+    <t>Accion</t>
   </si>
 </sst>
 </file>
@@ -590,12 +593,18 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>

--- a/metricas_LSTM.xlsx
+++ b/metricas_LSTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e65dacde5e48ce8/Documentos/Maestria Explotacion de Datos/Maestria/Taller de Tesis 1/2025/4ta Entrega (Final)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{798A0348-5905-4E71-B47F-4DBA8C33C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08B23B8-004A-4658-BC88-084D2E087132}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{798A0348-5905-4E71-B47F-4DBA8C33C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{368C4410-8D58-4246-A622-DD40C6EAA74F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F3031D3-021F-4C03-8CD6-ED03958470B5}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>0.00169</t>
   </si>
   <si>
-    <t>TNGO4</t>
-  </si>
-  <si>
     <t>0.00208</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Accion</t>
+  </si>
+  <si>
+    <t>TGNO4</t>
   </si>
 </sst>
 </file>
@@ -271,6 +271,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,9 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB0A79-5985-4DB9-AABD-343827CE6DB8}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -779,43 +781,43 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -823,21 +825,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
